--- a/[Data] WES_PASS/Patient-55-indels.xlsx
+++ b/[Data] WES_PASS/Patient-55-indels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="433">
   <si>
     <t>NG.8132_55B_lib74107_3847_3</t>
   </si>
@@ -40,811 +40,1279 @@
     <t>GBM driver</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>chr1_12429284</t>
   </si>
   <si>
-    <t>VPS13D</t>
+    <t>CROCCP2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_16948753   </t>
   </si>
   <si>
     <t>chr1_16011192</t>
   </si>
   <si>
-    <t>PLEKHM2</t>
+    <t>ZMYM6 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:ZMYM6 stop_gained:RP11-244H3.4 stop_gained&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_35472675   </t>
   </si>
   <si>
     <t>chr1_19584698</t>
   </si>
   <si>
-    <t>MRTO4</t>
+    <t>SPAG17 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:SPAG17 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_118567943   </t>
   </si>
   <si>
     <t>chr1_77334276</t>
   </si>
   <si>
-    <t>ST6GALNAC5</t>
+    <t>ALMS1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_73635986   </t>
   </si>
   <si>
     <t>chr1_81967466</t>
   </si>
   <si>
-    <t>LPHN2</t>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_97140962   </t>
   </si>
   <si>
     <t>chr1_89613321</t>
   </si>
   <si>
-    <t>GBP7:GBP2</t>
+    <t>EIF5B intron_variant&amp;non_coding_transcript_variant:EIF5B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_100006451   </t>
   </si>
   <si>
     <t>chr1_100343581</t>
   </si>
   <si>
-    <t>AGL</t>
+    <t>NANOGNBP1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_101276996   </t>
   </si>
   <si>
     <t>chr1_118483352</t>
   </si>
   <si>
-    <t>WDR3</t>
+    <t>MZT2A intron_variant&amp;non_coding_transcript_variant:TUBA3D splice_region_variant&amp;non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:MZT2A intron_variant&amp;NMD_transcript_variant:TUBA3D missense_variant&amp;splice_region_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_132237643   </t>
   </si>
   <si>
     <t>chr1_120539687</t>
   </si>
   <si>
-    <t>NOTCH2</t>
+    <t>UGT1A10 intron_variant:UGT1A4 intron_variant:UGT1A6 intron_variant:UGT1A3 intron_variant:AC114812.5 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:UGT1A6 intron_variant&amp;NMD_transcript_variant:UGT1A6 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:UGT1A8 intron_variant:UGT1A7 intron_variant:UGT1A4 intron_variant&amp;NMD_transcript_variant:UGT1A5 intron_variant:UGT1A9 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_234663820   </t>
   </si>
   <si>
     <t>chr1_142806888</t>
   </si>
   <si>
-    <t>ANKRD20A14P:RP11-423O2.5</t>
+    <t>MTERFD2 intron_variant&amp;non_coding_transcript_variant:MTERFD2 missense_variant:MTERFD2 missense_variant&amp;NMD_transcript_variant:MTERFD2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_242035573   </t>
   </si>
   <si>
     <t>chr1_145017822</t>
   </si>
   <si>
-    <t>PDE4DIP</t>
+    <t xml:space="preserve">chr3_97982936   </t>
   </si>
   <si>
     <t>chr1_203678292</t>
   </si>
   <si>
-    <t>ATP2B4</t>
+    <t>CDH18 intron_variant:CDH18 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_19503157   </t>
   </si>
   <si>
     <t>chr1_214792669</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>ERCC8 splice_region_variant&amp;intron_variant:ERCC8 splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant:ERCC8 splice_region_variant&amp;intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_60170512   </t>
   </si>
   <si>
     <t>chr1_215916728</t>
   </si>
   <si>
-    <t>USH2A</t>
+    <t>NBPF22P non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_85589073   </t>
   </si>
   <si>
     <t>chr1_227068242</t>
   </si>
   <si>
-    <t>PSEN2</t>
+    <t>UNC5A synonymous_variant:UNC5A 3_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_176297468   </t>
   </si>
   <si>
     <t>chr1_241033349</t>
   </si>
   <si>
-    <t>RGS7</t>
+    <t>APOM intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_31624922   </t>
   </si>
   <si>
     <t>chr1_243138492</t>
   </si>
   <si>
+    <t xml:space="preserve">chr6_32520594   </t>
+  </si>
+  <si>
     <t>chr1_243138540</t>
   </si>
   <si>
+    <t>TJAP1 missense_variant:TJAP1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_43469389   </t>
+  </si>
+  <si>
     <t>chr2_10933107</t>
   </si>
   <si>
-    <t>PDIA6</t>
+    <t xml:space="preserve">chr6_130031270   </t>
   </si>
   <si>
     <t>chr2_15319336</t>
   </si>
   <si>
-    <t>NBAS</t>
+    <t>HDAC9 intron_variant:HDAC9 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_18914031   </t>
   </si>
   <si>
     <t>chr2_39201073</t>
   </si>
   <si>
-    <t>ARHGEF33</t>
+    <t>PPP1R3A intron_variant:PPP1R3A intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_113521967   </t>
   </si>
   <si>
     <t>chr2_73635986</t>
   </si>
   <si>
-    <t>ALMS1</t>
+    <t>RP11-586K2.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_89621225   </t>
   </si>
   <si>
     <t>chr2_101276996</t>
   </si>
   <si>
-    <t>NANOGNBP1</t>
+    <t>GLDC non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:GLDC intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_6558446   </t>
   </si>
   <si>
     <t>chr2_101277017</t>
   </si>
   <si>
+    <t>SPATA31D5P non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_84533962   </t>
+  </si>
+  <si>
     <t>chr2_101277048</t>
   </si>
   <si>
+    <t>RP11-213G2.2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_88401591   </t>
+  </si>
+  <si>
     <t>chr2_110310798</t>
   </si>
   <si>
-    <t>SEPT10</t>
+    <t xml:space="preserve">chr9_90503247   </t>
   </si>
   <si>
     <t>chr2_135625399</t>
   </si>
   <si>
-    <t>CCNT2-AS1:ACMSD</t>
+    <t xml:space="preserve">chr11_48157541   </t>
   </si>
   <si>
     <t>chr2_165557069</t>
   </si>
   <si>
-    <t>COBLL1</t>
+    <t xml:space="preserve">chr11_48930284   </t>
   </si>
   <si>
     <t>chr2_172683461</t>
   </si>
   <si>
-    <t>SLC25A12</t>
+    <t xml:space="preserve">chr11_56064951   </t>
   </si>
   <si>
     <t>chr2_174104037</t>
   </si>
   <si>
-    <t>MLTK:MLK7-AS1</t>
+    <t>RSF1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_77396033   </t>
   </si>
   <si>
     <t>chr2_179515089</t>
   </si>
   <si>
-    <t>TTN:TTN-AS1</t>
+    <t>GLB1L3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_134151364   </t>
   </si>
   <si>
     <t>chr2_197791107</t>
   </si>
   <si>
-    <t>PGAP1</t>
+    <t xml:space="preserve">chr12_43769273   </t>
   </si>
   <si>
     <t>chr2_233243528</t>
   </si>
   <si>
-    <t>ALPP</t>
+    <t>MYO16 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_109792620   </t>
   </si>
   <si>
     <t>chr3_30045473</t>
   </si>
   <si>
-    <t>RBMS3</t>
+    <t>C15orf26 splice_region_variant&amp;intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_81427705   </t>
   </si>
   <si>
     <t>chr3_77613740</t>
   </si>
   <si>
-    <t>ROBO2</t>
+    <t>RBBP6 splice_donor_variant&amp;intron_variant:RBBP6 splice_donor_variant&amp;intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_24564879   </t>
   </si>
   <si>
     <t>chr3_142557906</t>
   </si>
   <si>
-    <t>PCOLCE2</t>
+    <t>SMURF2 intron_variant&amp;NMD_transcript_variant:SMURF2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_62547476   </t>
   </si>
   <si>
     <t>chr3_170109112</t>
   </si>
   <si>
-    <t>SKIL</t>
+    <t>MBD2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_51731582   </t>
   </si>
   <si>
     <t>chr3_185985706</t>
   </si>
   <si>
-    <t>DGKG</t>
+    <t>VAV1 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_6828110   </t>
+  </si>
+  <si>
+    <t>VAV1</t>
+  </si>
+  <si>
+    <t>synonymous_variant</t>
   </si>
   <si>
     <t>chr4_39436432</t>
   </si>
   <si>
-    <t>KLB</t>
+    <t>ZNF568 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:ZNF568 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_37487530   </t>
   </si>
   <si>
     <t>chr4_62362817</t>
   </si>
   <si>
-    <t>LPHN3</t>
+    <t>CTD-2224J9.8 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_54007117   </t>
   </si>
   <si>
     <t>chr4_86938317</t>
   </si>
   <si>
-    <t>MAPK10</t>
+    <t>ZBP1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:ZBP1 intron_variant:ZBP1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_56191538   </t>
   </si>
   <si>
     <t>chr4_110929468</t>
   </si>
   <si>
-    <t>EGF</t>
+    <t>COL18A1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21_46900079   </t>
   </si>
   <si>
     <t>chr5_5955001</t>
   </si>
   <si>
+    <t>NBAS intron_variant:NBAS non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_15319336   </t>
+  </si>
+  <si>
     <t>chr5_5955020</t>
   </si>
   <si>
+    <t>GUSBP1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:GUSBP1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_21491446   </t>
+  </si>
+  <si>
     <t>chr5_60170512</t>
   </si>
   <si>
-    <t>ERCC8</t>
+    <t xml:space="preserve">chr6_32557608   </t>
   </si>
   <si>
     <t>chr5_102484797</t>
   </si>
   <si>
-    <t>PPIP5K2</t>
+    <t>PPM1E intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_57049716   </t>
   </si>
   <si>
     <t>chr6_7582770</t>
   </si>
   <si>
-    <t>DSP</t>
+    <t>MZT2A intron_variant&amp;non_coding_transcript_variant:TUBA3D non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:MZT2A intron_variant&amp;NMD_transcript_variant:TUBA3D missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_132237732   </t>
   </si>
   <si>
     <t>chr6_29536195</t>
   </si>
   <si>
-    <t>GABBR1</t>
+    <t>KLB intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_39436432   </t>
   </si>
   <si>
     <t>chr6_29897255</t>
   </si>
   <si>
+    <t xml:space="preserve"> intergenic_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_5955020   </t>
+  </si>
+  <si>
     <t>chr6_29910688</t>
   </si>
   <si>
-    <t>HLA-A:HCG4P5</t>
+    <t>CCR7 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_38712160   </t>
+  </si>
+  <si>
+    <t>CCR7</t>
+  </si>
+  <si>
+    <t>intron_variant</t>
   </si>
   <si>
     <t>chr6_31624922</t>
   </si>
   <si>
-    <t>APOM</t>
+    <t>KIR3DL1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_55328087   </t>
   </si>
   <si>
     <t>chr6_32498026</t>
   </si>
   <si>
+    <t>PABPC1P9 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22_16906273   </t>
+  </si>
+  <si>
     <t>chr6_32520594</t>
   </si>
   <si>
+    <t>FRMD3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_86004828   </t>
+  </si>
+  <si>
     <t>chr6_32557608</t>
   </si>
   <si>
+    <t xml:space="preserve">chr1_21738457   </t>
+  </si>
+  <si>
     <t>chr6_32710363</t>
   </si>
   <si>
+    <t xml:space="preserve">chr1_21738461   </t>
+  </si>
+  <si>
     <t>chr6_33047412</t>
   </si>
   <si>
-    <t>RPL32P1:HLA-DPB1:HLA-DPA1</t>
+    <t xml:space="preserve">chr1_243138540   </t>
   </si>
   <si>
     <t>chr6_130031270</t>
   </si>
   <si>
+    <t>IL22 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_68646870   </t>
+  </si>
+  <si>
     <t>chr6_142723974</t>
   </si>
   <si>
-    <t>GPR126</t>
+    <t>ZNF382 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_37101355   </t>
   </si>
   <si>
     <t>chr7_14797180</t>
   </si>
   <si>
-    <t>DGKB</t>
+    <t>PDE4DIP intron_variant&amp;non_coding_transcript_variant:PDE4DIP intron_variant:PDE4DIP intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_145017822   </t>
+  </si>
+  <si>
+    <t>PDE4DIP:PDE4DIP:PDE4DIP</t>
+  </si>
+  <si>
+    <t>intron_variant&amp;non_coding_transcript_variant:intron_variant:intron_variant&amp;NMD_transcript_variant</t>
   </si>
   <si>
     <t>chr7_20825145</t>
   </si>
   <si>
-    <t>SP8</t>
+    <t>ZBTB3 intron_variant&amp;NMD_transcript_variant:ZBTB3 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_62519422   </t>
   </si>
   <si>
     <t>chr7_43360612</t>
   </si>
   <si>
-    <t>HECW1</t>
+    <t xml:space="preserve">chr2_91801244   </t>
   </si>
   <si>
     <t>chr7_50173973</t>
   </si>
   <si>
-    <t>C7orf72</t>
+    <t xml:space="preserve">chr7_72708067   </t>
   </si>
   <si>
     <t>chr7_69065039</t>
   </si>
   <si>
-    <t>AUTS2</t>
+    <t>OBSCN missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_228520994   </t>
   </si>
   <si>
     <t>chr7_96279996</t>
   </si>
   <si>
-    <t>RP11-682N22.1:SHFM1</t>
+    <t>EGFR missense_variant</t>
+  </si>
+  <si>
+    <t>chr7_55220274   EGFR SNV missense_variant</t>
+  </si>
+  <si>
+    <t>EGFR</t>
+  </si>
+  <si>
+    <t>missense_variant</t>
   </si>
   <si>
     <t>chr7_102967731</t>
   </si>
   <si>
-    <t>DNAJC2:PMPCB</t>
+    <t xml:space="preserve">chr7_57701664   </t>
   </si>
   <si>
     <t>chr7_149525083</t>
   </si>
   <si>
-    <t>SSPO</t>
+    <t>LSS intron_variant:AP001468.1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21_47613476   </t>
   </si>
   <si>
     <t>chr7_151944760</t>
   </si>
   <si>
-    <t>KMT2C</t>
+    <t xml:space="preserve">chrX_152482592   </t>
   </si>
   <si>
     <t>chr7_155095686</t>
   </si>
   <si>
-    <t>INSIG1</t>
+    <t>ARHGEF33 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:ARHGEF33 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_39201073   </t>
   </si>
   <si>
     <t>chr8_17400726</t>
   </si>
   <si>
-    <t>SLC7A2</t>
+    <t>R3HCC1 intron_variant:R3HCC1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_23152449   </t>
   </si>
   <si>
     <t>chr8_23152449</t>
   </si>
   <si>
-    <t>R3HCC1</t>
+    <t>CCDC81 intron_variant&amp;non_coding_transcript_variant:CCDC81 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_86108901   </t>
   </si>
   <si>
     <t>chr8_35624323</t>
   </si>
   <si>
-    <t>UNC5D</t>
+    <t>DIS3 intron_variant:DIS3 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_73349918   </t>
   </si>
   <si>
     <t>chr8_49831217</t>
   </si>
   <si>
-    <t>SNAI2</t>
+    <t>HPR intron_variant:HPR intron_variant&amp;non_coding_transcript_variant:HPR frameshift_variant:TXNL4B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_72107692   </t>
   </si>
   <si>
     <t>chr8_75157416</t>
   </si>
   <si>
-    <t>JPH1</t>
+    <t>ZFHX3 inframe_deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_72822563   </t>
+  </si>
+  <si>
+    <t>ZFHX3</t>
+  </si>
+  <si>
+    <t>inframe_deletion</t>
   </si>
   <si>
     <t>chr8_121648290</t>
   </si>
   <si>
-    <t>CTC-820M8.1:SNTB1</t>
+    <t xml:space="preserve">chr1_152996546   </t>
   </si>
   <si>
     <t>chr9_429922</t>
   </si>
   <si>
-    <t>DOCK8</t>
+    <t>TTN intron_variant:TTN-AS1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_179515089   </t>
   </si>
   <si>
     <t>chr9_84533962</t>
   </si>
   <si>
-    <t>SPATA31D5P</t>
+    <t>DNAH5 stop_gained:DNAH5 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_13810366   </t>
   </si>
   <si>
     <t>chr9_86004828</t>
   </si>
   <si>
-    <t>FRMD3</t>
+    <t xml:space="preserve">chr5_38924589   </t>
   </si>
   <si>
     <t>chr10_22616896</t>
   </si>
   <si>
-    <t>BMI1:COMMD3-BMI1</t>
+    <t>RIMS2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_105152732   </t>
   </si>
   <si>
     <t>chr10_30638207</t>
   </si>
   <si>
-    <t>MTPAP</t>
+    <t>COL22A1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_139736702   </t>
   </si>
   <si>
     <t>chr10_30978100</t>
   </si>
   <si>
+    <t xml:space="preserve">chr8_144942124   </t>
+  </si>
+  <si>
     <t>chr10_49633873</t>
   </si>
   <si>
-    <t>MAPK8</t>
+    <t xml:space="preserve">chr9_68433749   </t>
   </si>
   <si>
     <t>chr10_49633876</t>
   </si>
   <si>
+    <t>C9orf57 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_74674086   </t>
+  </si>
+  <si>
     <t>chr10_92676187</t>
   </si>
   <si>
+    <t xml:space="preserve">chr10_59101270   </t>
+  </si>
+  <si>
     <t>chr11_31128484</t>
   </si>
   <si>
-    <t>DCDC1</t>
+    <t xml:space="preserve">chr14_21250123   </t>
   </si>
   <si>
     <t>chr11_55657372</t>
   </si>
   <si>
-    <t>TRIM51</t>
+    <t>CLUH intron_variant:CLUH intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_2597659   </t>
   </si>
   <si>
     <t>chr11_62519422</t>
   </si>
   <si>
-    <t>ZBTB3</t>
+    <t>EMR4P intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_6963450   </t>
   </si>
   <si>
     <t>chr11_77396033</t>
   </si>
   <si>
-    <t>RSF1</t>
+    <t xml:space="preserve">chr19_20727705   </t>
   </si>
   <si>
     <t>chr11_86108901</t>
   </si>
   <si>
-    <t>CCDC81</t>
+    <t>ZNF737 intron_variant:ZNF737 intron_variant&amp;NMD_transcript_variant:CTC-513N18.7 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_20738565   </t>
   </si>
   <si>
     <t>chr11_108014945</t>
   </si>
   <si>
-    <t>ACAT1</t>
+    <t xml:space="preserve">chr21_28338020   </t>
   </si>
   <si>
     <t>chr11_134151364</t>
   </si>
   <si>
-    <t>GLB1L3</t>
+    <t xml:space="preserve">chrX_52825414   </t>
   </si>
   <si>
     <t>chr12_27540087</t>
   </si>
   <si>
-    <t>ARNTL2</t>
+    <t>MRTO4 intron_variant&amp;non_coding_transcript_variant:MRTO4 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_19584698   </t>
   </si>
   <si>
     <t>chr12_31244817</t>
   </si>
   <si>
-    <t>DDX11</t>
+    <t>SLC25A12 intron_variant:SLC25A12 intron_variant&amp;NMD_transcript_variant:SLC25A12 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_172683461   </t>
   </si>
   <si>
     <t>chr12_51068149</t>
   </si>
   <si>
-    <t>DIP2B</t>
+    <t xml:space="preserve">chr3_97783491   </t>
   </si>
   <si>
     <t>chr12_53819724</t>
   </si>
   <si>
-    <t>AMHR2</t>
+    <t xml:space="preserve">chr20_25900012   </t>
   </si>
   <si>
     <t>chr12_57978895</t>
   </si>
   <si>
+    <t>NBPF9 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:NBPF9 5_prime_UTR_variant:NBPF9 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_144816621   </t>
+  </si>
+  <si>
     <t>chr12_68646870</t>
   </si>
   <si>
-    <t>IL22</t>
+    <t>KDM5D intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrY_21894685   </t>
   </si>
   <si>
     <t>chr12_72090411</t>
   </si>
   <si>
-    <t>RP11-293I14.2:TMEM19</t>
+    <t>CACNA1E missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_181767716   </t>
   </si>
   <si>
     <t>chr13_19962036</t>
   </si>
   <si>
-    <t>PARP4P2</t>
+    <t>PGAP1 intron_variant:PGAP1 intron_variant&amp;NMD_transcript_variant:PGAP1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_197791107   </t>
   </si>
   <si>
     <t>chr13_73349918</t>
   </si>
   <si>
-    <t>DIS3</t>
+    <t>TTC21A non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:TTC21A missense_variant:TTC21A missense_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_39170609   </t>
   </si>
   <si>
     <t>chr14_22005214</t>
   </si>
   <si>
-    <t>SALL2</t>
+    <t>OPN5 intron_variant&amp;non_coding_transcript_variant:OPN5 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_47791452   </t>
   </si>
   <si>
     <t>chr14_23416518</t>
   </si>
   <si>
-    <t>HAUS4:RP11-298I3.1:RP11-298I3.5</t>
+    <t>NSUN5P2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:POM121 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_72420467   </t>
   </si>
   <si>
     <t>chr14_106805131</t>
   </si>
   <si>
+    <t>DIP2B intron_variant&amp;NMD_transcript_variant:DIP2B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_51118445   </t>
+  </si>
+  <si>
     <t>chr14_107083170</t>
   </si>
   <si>
+    <t>CTDSP2 intron_variant&amp;NMD_transcript_variant:CTDSP2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_58220056   </t>
+  </si>
+  <si>
     <t>chr15_21137122</t>
   </si>
   <si>
-    <t>NF1P1</t>
+    <t>LMAN1L splice_region_variant&amp;non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RP11-414J4.2 splice_region_variant&amp;non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:LMAN1L missense_variant&amp;splice_region_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_75111156   </t>
   </si>
   <si>
     <t>chr15_58974349</t>
   </si>
   <si>
-    <t>ADAM10</t>
+    <t>NF1 splice_region_variant&amp;intron_variant&amp;NMD_transcript_variant:NF1 splice_region_variant&amp;intron_variant:NF1 splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t>chr17_29559904   NF1 SNV splice_region_variant&amp;intron_variant&amp;NMD_transcript_variant:splice_region_variant&amp;intron_variant:splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t>NF1:NF1:NF1</t>
+  </si>
+  <si>
+    <t>splice_region_variant&amp;intron_variant&amp;NMD_transcript_variant:splice_region_variant&amp;intron_variant:splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant</t>
   </si>
   <si>
     <t>chr15_81427705</t>
   </si>
   <si>
-    <t>C15orf26</t>
+    <t>ALPP non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:ALPP inframe_deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_233243528   </t>
   </si>
   <si>
     <t>chr16_3023615</t>
   </si>
   <si>
-    <t>PKMYT1</t>
+    <t>RP11-293I14.2 intron_variant&amp;NMD_transcript_variant:TMEM19 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_72090411   </t>
   </si>
   <si>
     <t>chr16_3529763</t>
   </si>
   <si>
-    <t>NAA60:LA16c-306E5.3</t>
+    <t>ABCA5 intron_variant:ABCA5 intron_variant&amp;NMD_transcript_variant:ABCA5 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_67246495   </t>
   </si>
   <si>
     <t>chr16_20781190</t>
   </si>
   <si>
-    <t>ACSM3</t>
+    <t>NBPF1 intron_variant&amp;NMD_transcript_variant:NBPF1 missense_variant&amp;splice_region_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_16916395   </t>
   </si>
   <si>
     <t>chr16_24564879</t>
   </si>
   <si>
-    <t>RBBP6</t>
+    <t>WDR3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_118483352   </t>
   </si>
   <si>
     <t>chr16_57992228</t>
   </si>
   <si>
-    <t>CNGB1</t>
+    <t>CES1 intron_variant&amp;non_coding_transcript_variant:CES1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_55863015   </t>
   </si>
   <si>
     <t>chr16_70993881</t>
   </si>
   <si>
-    <t>HYDIN</t>
+    <t>CHERP inframe_deletion:CTD-3222D19.2 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_16640580   </t>
   </si>
   <si>
     <t>chr16_72107692</t>
   </si>
   <si>
-    <t>HPR:TXNL4B</t>
+    <t>ATP2B4 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_203678292   </t>
   </si>
   <si>
     <t>chr16_72822563</t>
   </si>
   <si>
-    <t>ZFHX3</t>
+    <t>DGKG intron_variant:DGKG intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_185985706   </t>
   </si>
   <si>
     <t>chr16_89828992</t>
   </si>
   <si>
-    <t>FANCA</t>
+    <t>RP11-1023L17.1 intron_variant&amp;non_coding_transcript_variant:RP11-1023L17.2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_34191402   </t>
   </si>
   <si>
     <t>chr17_2651726</t>
   </si>
   <si>
+    <t>TRIM51 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_55657372   </t>
+  </si>
+  <si>
     <t>chr17_26101214</t>
   </si>
   <si>
+    <t xml:space="preserve">chr1_21738407   </t>
+  </si>
+  <si>
     <t>chr17_29635163</t>
   </si>
   <si>
-    <t>NF1:EVI2B:CTD-2370N5.3</t>
-  </si>
-  <si>
-    <t>NF1 Indel</t>
+    <t xml:space="preserve">chr1_21738426   </t>
   </si>
   <si>
     <t>chr17_38644758</t>
   </si>
   <si>
+    <t>KIT intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_55565782   </t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
     <t>chr17_38712160</t>
   </si>
   <si>
-    <t>CCR7</t>
+    <t xml:space="preserve">chr6_32498026   </t>
   </si>
   <si>
     <t>chr17_39274205</t>
   </si>
   <si>
+    <t>COL9A1 intron_variant:COL9A1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_70980090   </t>
+  </si>
+  <si>
     <t>chr17_48603775</t>
   </si>
   <si>
-    <t>MYCBPAP</t>
+    <t>RP11-415I12.3 intron_variant&amp;non_coding_transcript_variant:RP11-972L6.2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:DPY19L2 intron_variant:DPY19L2 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_64045525   </t>
   </si>
   <si>
     <t>chr17_57049716</t>
   </si>
   <si>
-    <t>PPM1E</t>
+    <t xml:space="preserve">chr17_30469391   </t>
   </si>
   <si>
     <t>chr17_62547476</t>
   </si>
   <si>
-    <t>SMURF2</t>
+    <t xml:space="preserve">chr17_39274205   </t>
   </si>
   <si>
     <t>chr17_67246495</t>
   </si>
   <si>
-    <t>ABCA5</t>
+    <t xml:space="preserve">chr17_66194061   </t>
   </si>
   <si>
     <t>chr17_72521760</t>
   </si>
   <si>
-    <t>CD300LB</t>
+    <t>FTCD intron_variant:FTCD intron_variant&amp;non_coding_transcript_variant:FTCD-AS1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21_47571937   </t>
   </si>
   <si>
     <t>chr17_73944639</t>
   </si>
   <si>
-    <t>ACOX1</t>
+    <t>SCARF2 synonymous_variant:KLHL22 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22_20785748   </t>
   </si>
   <si>
     <t>chr18_33283113</t>
   </si>
   <si>
-    <t>GALNT1</t>
+    <t>AUTS2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_69065039   </t>
   </si>
   <si>
     <t>chr19_6963450</t>
   </si>
   <si>
-    <t>EMR4P</t>
+    <t>CNGB1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_57992228   </t>
   </si>
   <si>
     <t>chr19_16640580</t>
   </si>
   <si>
-    <t>CHERP:CTD-3222D19.2</t>
+    <t xml:space="preserve">chrY_14107471   </t>
   </si>
   <si>
     <t>chr19_37101355</t>
   </si>
   <si>
-    <t>ZNF382</t>
+    <t>SALL2 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_22005214   </t>
   </si>
   <si>
     <t>chr19_49926530</t>
   </si>
   <si>
+    <t>GBP7 frameshift_variant:GBP2 5_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_89613321   </t>
+  </si>
+  <si>
     <t>chr19_55328087</t>
   </si>
   <si>
-    <t>KIR3DL1</t>
+    <t>COBLL1 frameshift_variant:COBLL1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:COBLL1 3_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_165557069   </t>
   </si>
   <si>
     <t>chr19_55328096</t>
   </si>
   <si>
+    <t xml:space="preserve">chr3_14583639   </t>
+  </si>
+  <si>
     <t>chr19_55332902</t>
   </si>
   <si>
+    <t xml:space="preserve">chr3_48413708   </t>
+  </si>
+  <si>
     <t>chr20_6759758</t>
   </si>
   <si>
+    <t>PPIP5K2 intron_variant:PPIP5K2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_102484797   </t>
+  </si>
+  <si>
     <t>chr20_25900012</t>
   </si>
   <si>
+    <t>HLA-C synonymous_variant:HLA-C non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:HLA-C 3_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_31239034   </t>
+  </si>
+  <si>
     <t>chr21_10775341</t>
   </si>
   <si>
+    <t xml:space="preserve">chr7_53104337   </t>
+  </si>
+  <si>
     <t>chr21_11026806</t>
   </si>
   <si>
-    <t>TPTE:BAGE2</t>
+    <t>RP11-682N22.1 intron_variant&amp;non_coding_transcript_variant:SHFM1 intron_variant:SHFM1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_96279996   </t>
   </si>
   <si>
     <t>chr21_11043950</t>
   </si>
   <si>
-    <t>BAGE2</t>
+    <t>KCP non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_128525196   </t>
   </si>
   <si>
     <t>chr21_32114618</t>
   </si>
   <si>
+    <t>SSPO intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_149525083   </t>
+  </si>
+  <si>
     <t>chr21_38845338</t>
   </si>
   <si>
-    <t>DYRK1A</t>
+    <t>SMIM19 missense_variant:SMIM19 3_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_42403876   </t>
   </si>
   <si>
     <t>chr21_47417147</t>
   </si>
   <si>
+    <t>PRKAG1 intron_variant:RP11-386G11.5 intron_variant&amp;non_coding_transcript_variant:PRKAG1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_49397299   </t>
+  </si>
+  <si>
     <t>chr22_16906273</t>
   </si>
   <si>
-    <t>PABPC1P9</t>
+    <t xml:space="preserve">chr15_28499573   </t>
   </si>
   <si>
     <t>chr22_18189362</t>
   </si>
   <si>
-    <t>BCL2L13</t>
+    <t>RP11-114H24.2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_78217296   </t>
   </si>
   <si>
     <t>chr22_35679787</t>
   </si>
   <si>
-    <t>HMGXB4</t>
+    <t>ICAM1 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_10395973   </t>
   </si>
   <si>
     <t>chrX_14708781</t>
   </si>
   <si>
-    <t>GLRA2</t>
+    <t>DMD intron_variant&amp;non_coding_transcript_variant:DMD splice_donor_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_32305645   </t>
   </si>
   <si>
     <t>chrX_48140624</t>
   </si>
   <si>
-    <t>RP11-344N17.11</t>
+    <t>SDHA non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:SDHA missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_236678   </t>
+  </si>
+  <si>
+    <t>SDHA:SDHA</t>
+  </si>
+  <si>
+    <t>non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:missense_variant</t>
   </si>
   <si>
     <t>chrX_135750063</t>
   </si>
   <si>
-    <t>ARHGEF6</t>
+    <t>MGAM intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_141786152   </t>
   </si>
 </sst>
 </file>
@@ -1176,13 +1644,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1207,10 +1675,16 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1231,12 +1705,15 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1257,12 +1734,15 @@
         <v>0.153846153846154</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1283,12 +1763,15 @@
         <v>0.05</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1309,12 +1792,15 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1335,12 +1821,15 @@
         <v>0.529411764705882</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1361,12 +1850,15 @@
         <v>0.149122807017544</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1387,12 +1879,15 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1413,12 +1908,15 @@
         <v>0.0131578947368421</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1439,12 +1937,15 @@
         <v>0.0754716981132075</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1465,12 +1966,15 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1491,12 +1995,15 @@
         <v>0.0476190476190476</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1517,12 +2024,15 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1543,12 +2053,15 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1569,12 +2082,15 @@
         <v>0.481481481481481</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1595,12 +2111,15 @@
         <v>0.294117647058824</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1621,12 +2140,15 @@
         <v>0.0050761421319797</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1647,12 +2169,15 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1673,12 +2198,15 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1699,12 +2227,15 @@
         <v>0.333333333333333</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1725,12 +2256,15 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1751,12 +2285,15 @@
         <v>0.128571428571429</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1777,12 +2314,15 @@
         <v>0.0689655172413793</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1803,12 +2343,15 @@
         <v>0.145833333333333</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1829,12 +2372,15 @@
         <v>0.111111111111111</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1855,12 +2401,15 @@
         <v>0.0454545454545455</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1881,12 +2430,15 @@
         <v>0.0333333333333333</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1907,12 +2459,15 @@
         <v>0.0444444444444444</v>
       </c>
       <c r="H28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1933,12 +2488,15 @@
         <v>0.10377358490566</v>
       </c>
       <c r="H29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1959,12 +2517,15 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1985,12 +2546,15 @@
         <v>0.0851063829787234</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2011,12 +2575,15 @@
         <v>0.151162790697674</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2037,12 +2604,15 @@
         <v>0.04</v>
       </c>
       <c r="H33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2063,12 +2633,15 @@
         <v>0.0652173913043478</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2089,12 +2662,15 @@
         <v>0.103448275862069</v>
       </c>
       <c r="H35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2115,12 +2691,15 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2141,12 +2720,15 @@
         <v>0.0857142857142857</v>
       </c>
       <c r="H37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2167,12 +2749,15 @@
         <v>0.214285714285714</v>
       </c>
       <c r="H38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2193,12 +2778,21 @@
         <v>0.0652173913043478</v>
       </c>
       <c r="H39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I39" t="s">
+        <v>114</v>
+      </c>
+      <c r="J39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2219,12 +2813,15 @@
         <v>0.0645161290322581</v>
       </c>
       <c r="H40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2245,12 +2842,15 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2271,12 +2871,15 @@
         <v>0.037037037037037</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2297,12 +2900,15 @@
         <v>0.0277777777777778</v>
       </c>
       <c r="H43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2323,12 +2929,15 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2349,12 +2958,15 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2375,12 +2987,15 @@
         <v>0.269230769230769</v>
       </c>
       <c r="H46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2401,12 +3016,15 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="H47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2427,12 +3045,15 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2453,12 +3074,15 @@
         <v>0.5</v>
       </c>
       <c r="H49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2479,12 +3103,15 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2505,12 +3132,21 @@
         <v>0.0625</v>
       </c>
       <c r="H51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I51" t="s">
+        <v>151</v>
+      </c>
+      <c r="J51" t="s">
+        <v>152</v>
+      </c>
+      <c r="K51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2531,12 +3167,15 @@
         <v>0.28125</v>
       </c>
       <c r="H52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2557,12 +3196,15 @@
         <v>0.0285714285714286</v>
       </c>
       <c r="H53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2583,12 +3225,15 @@
         <v>0.4</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2609,12 +3254,15 @@
         <v>0.137931034482759</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2635,12 +3283,15 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2661,12 +3312,15 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2687,12 +3341,15 @@
         <v>0.25</v>
       </c>
       <c r="H58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2713,12 +3370,15 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2739,12 +3399,21 @@
         <v>0.027027027027027</v>
       </c>
       <c r="H60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>176</v>
+      </c>
+      <c r="I60" t="s">
+        <v>177</v>
+      </c>
+      <c r="J60" t="s">
+        <v>178</v>
+      </c>
+      <c r="K60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2765,12 +3434,15 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2791,12 +3463,15 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2817,12 +3492,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="H63" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2843,12 +3521,15 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2869,12 +3550,21 @@
         <v>0.0869565217391304</v>
       </c>
       <c r="H65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I65" t="s">
+        <v>192</v>
+      </c>
+      <c r="J65" t="s">
+        <v>193</v>
+      </c>
+      <c r="K65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2895,12 +3585,15 @@
         <v>0.24</v>
       </c>
       <c r="H66" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2921,12 +3614,15 @@
         <v>0.0508474576271186</v>
       </c>
       <c r="H67" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>198</v>
+      </c>
+      <c r="I67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2947,12 +3643,15 @@
         <v>0.0285714285714286</v>
       </c>
       <c r="H68" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I68" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2973,12 +3672,15 @@
         <v>0.027027027027027</v>
       </c>
       <c r="H69" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="I69" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2999,12 +3701,15 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="H70" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3025,12 +3730,15 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3051,12 +3759,15 @@
         <v>0.1</v>
       </c>
       <c r="H72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="I72" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3077,12 +3788,15 @@
         <v>0.032258064516129</v>
       </c>
       <c r="H73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I73" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3103,12 +3817,21 @@
         <v>0.0655737704918033</v>
       </c>
       <c r="H74" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>218</v>
+      </c>
+      <c r="I74" t="s">
+        <v>219</v>
+      </c>
+      <c r="J74" t="s">
+        <v>220</v>
+      </c>
+      <c r="K74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3129,12 +3852,15 @@
         <v>0.243243243243243</v>
       </c>
       <c r="H75" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I75" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3155,12 +3881,15 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>225</v>
+      </c>
+      <c r="I76" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3181,12 +3910,15 @@
         <v>0.409836065573771</v>
       </c>
       <c r="H77" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>228</v>
+      </c>
+      <c r="I77" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3207,12 +3939,15 @@
         <v>0.1</v>
       </c>
       <c r="H78" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I78" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3233,12 +3968,15 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>233</v>
+      </c>
+      <c r="I79" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3259,12 +3997,15 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="H80" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>236</v>
+      </c>
+      <c r="I80" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3285,12 +4026,15 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="H81" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3311,12 +4055,15 @@
         <v>0.102564102564103</v>
       </c>
       <c r="H82" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I82" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3337,12 +4084,15 @@
         <v>0.121212121212121</v>
       </c>
       <c r="H83" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>243</v>
+      </c>
+      <c r="I83" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3363,12 +4113,15 @@
         <v>0.217391304347826</v>
       </c>
       <c r="H84" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I84" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3389,12 +4142,15 @@
         <v>0.02</v>
       </c>
       <c r="H85" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I85" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3415,12 +4171,15 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="H86" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I86" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3441,12 +4200,15 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I87" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3467,12 +4229,15 @@
         <v>0.318181818181818</v>
       </c>
       <c r="H88" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I88" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3493,12 +4258,15 @@
         <v>0.05</v>
       </c>
       <c r="H89" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>258</v>
+      </c>
+      <c r="I89" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3519,12 +4287,15 @@
         <v>0.153846153846154</v>
       </c>
       <c r="H90" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I90" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3545,12 +4316,15 @@
         <v>0.192307692307692</v>
       </c>
       <c r="H91" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I91" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3571,12 +4345,15 @@
         <v>0.0232558139534884</v>
       </c>
       <c r="H92" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>265</v>
+      </c>
+      <c r="I92" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3597,12 +4374,15 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="H93" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I93" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3623,12 +4403,15 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I94" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3649,12 +4432,15 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="H95" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I95" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3675,12 +4461,15 @@
         <v>0.19047619047619</v>
       </c>
       <c r="H96" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>275</v>
+      </c>
+      <c r="I96" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3701,12 +4490,15 @@
         <v>0.0952380952380952</v>
       </c>
       <c r="H97" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>278</v>
+      </c>
+      <c r="I97" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3727,12 +4519,15 @@
         <v>0.333333333333333</v>
       </c>
       <c r="H98" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>281</v>
+      </c>
+      <c r="I98" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>186</v>
+        <v>283</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3753,12 +4548,15 @@
         <v>0.0285714285714286</v>
       </c>
       <c r="H99" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>284</v>
+      </c>
+      <c r="I99" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3779,12 +4577,15 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="I100" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -3805,12 +4606,15 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>290</v>
+      </c>
+      <c r="I101" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3831,12 +4635,15 @@
         <v>0.0140845070422535</v>
       </c>
       <c r="H102" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>293</v>
+      </c>
+      <c r="I102" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3857,12 +4664,15 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>296</v>
+      </c>
+      <c r="I103" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3883,12 +4693,15 @@
         <v>0.03125</v>
       </c>
       <c r="H104" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>299</v>
+      </c>
+      <c r="I104" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -3909,12 +4722,15 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>302</v>
+      </c>
+      <c r="I105" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -3935,12 +4751,21 @@
         <v>0.142857142857143</v>
       </c>
       <c r="H106" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>305</v>
+      </c>
+      <c r="I106" t="s">
+        <v>306</v>
+      </c>
+      <c r="J106" t="s">
+        <v>307</v>
+      </c>
+      <c r="K106" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -3961,12 +4786,15 @@
         <v>0.128205128205128</v>
       </c>
       <c r="H107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>310</v>
+      </c>
+      <c r="I107" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -3987,12 +4815,15 @@
         <v>0.521739130434783</v>
       </c>
       <c r="H108" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>313</v>
+      </c>
+      <c r="I108" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>204</v>
+        <v>315</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4013,12 +4844,15 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>316</v>
+      </c>
+      <c r="I109" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>206</v>
+        <v>318</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4039,12 +4873,15 @@
         <v>0.4375</v>
       </c>
       <c r="H110" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>319</v>
+      </c>
+      <c r="I110" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4065,12 +4902,15 @@
         <v>0.135135135135135</v>
       </c>
       <c r="H111" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>322</v>
+      </c>
+      <c r="I111" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>210</v>
+        <v>324</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4091,12 +4931,15 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>325</v>
+      </c>
+      <c r="I112" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4117,12 +4960,15 @@
         <v>0.0526315789473684</v>
       </c>
       <c r="H113" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>328</v>
+      </c>
+      <c r="I113" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4143,12 +4989,15 @@
         <v>0.0294117647058824</v>
       </c>
       <c r="H114" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>331</v>
+      </c>
+      <c r="I114" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>333</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4169,12 +5018,15 @@
         <v>0.0333333333333333</v>
       </c>
       <c r="H115" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>334</v>
+      </c>
+      <c r="I115" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>218</v>
+        <v>336</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4195,12 +5047,15 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>337</v>
+      </c>
+      <c r="I116" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4221,12 +5076,15 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>340</v>
+      </c>
+      <c r="I117" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>221</v>
+        <v>342</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4247,12 +5105,15 @@
         <v>0.0487804878048781</v>
       </c>
       <c r="H118" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="I118" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>222</v>
+        <v>344</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4273,15 +5134,15 @@
         <v>0.166666666666667</v>
       </c>
       <c r="H119" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="I119" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>225</v>
+        <v>346</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4302,12 +5163,21 @@
         <v>0.037037037037037</v>
       </c>
       <c r="H120" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>347</v>
+      </c>
+      <c r="I120" t="s">
+        <v>348</v>
+      </c>
+      <c r="J120" t="s">
+        <v>349</v>
+      </c>
+      <c r="K120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>226</v>
+        <v>350</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4328,12 +5198,15 @@
         <v>0.0952380952380952</v>
       </c>
       <c r="H121" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="I121" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>228</v>
+        <v>352</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4354,12 +5227,15 @@
         <v>0.0476190476190476</v>
       </c>
       <c r="H122" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>353</v>
+      </c>
+      <c r="I122" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>229</v>
+        <v>355</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4380,12 +5256,15 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="H123" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>356</v>
+      </c>
+      <c r="I123" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>231</v>
+        <v>358</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4406,12 +5285,15 @@
         <v>0.136363636363636</v>
       </c>
       <c r="H124" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="I124" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>233</v>
+        <v>360</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4432,12 +5314,15 @@
         <v>0.107142857142857</v>
       </c>
       <c r="H125" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="I125" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>235</v>
+        <v>362</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4458,12 +5343,15 @@
         <v>0.0555555555555556</v>
       </c>
       <c r="H126" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="I126" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>237</v>
+        <v>364</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4484,12 +5372,15 @@
         <v>0.027027027027027</v>
       </c>
       <c r="H127" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>365</v>
+      </c>
+      <c r="I127" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>239</v>
+        <v>367</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4510,12 +5401,15 @@
         <v>0.217391304347826</v>
       </c>
       <c r="H128" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>368</v>
+      </c>
+      <c r="I128" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>241</v>
+        <v>370</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -4536,12 +5430,15 @@
         <v>0.230769230769231</v>
       </c>
       <c r="H129" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>371</v>
+      </c>
+      <c r="I129" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4562,12 +5459,15 @@
         <v>0.222222222222222</v>
       </c>
       <c r="H130" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>374</v>
+      </c>
+      <c r="I130" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>245</v>
+        <v>376</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -4588,12 +5488,15 @@
         <v>0.025</v>
       </c>
       <c r="H131" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I131" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>247</v>
+        <v>378</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -4614,12 +5517,15 @@
         <v>0.0612244897959184</v>
       </c>
       <c r="H132" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>379</v>
+      </c>
+      <c r="I132" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4640,12 +5546,15 @@
         <v>0.0188679245283019</v>
       </c>
       <c r="H133" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>382</v>
+      </c>
+      <c r="I133" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>250</v>
+        <v>384</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -4666,12 +5575,15 @@
         <v>0.0930232558139535</v>
       </c>
       <c r="H134" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>385</v>
+      </c>
+      <c r="I134" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>252</v>
+        <v>387</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -4692,12 +5604,15 @@
         <v>0.105263157894737</v>
       </c>
       <c r="H135" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I135" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>253</v>
+        <v>389</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -4718,12 +5633,15 @@
         <v>0.133333333333333</v>
       </c>
       <c r="H136" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I136" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>254</v>
+        <v>391</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -4744,12 +5662,15 @@
         <v>0.0526315789473684</v>
       </c>
       <c r="H137" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>392</v>
+      </c>
+      <c r="I137" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>255</v>
+        <v>394</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -4770,12 +5691,15 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>395</v>
+      </c>
+      <c r="I138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>256</v>
+        <v>397</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -4796,12 +5720,15 @@
         <v>0.208333333333333</v>
       </c>
       <c r="H139" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I139" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>257</v>
+        <v>399</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -4822,12 +5749,15 @@
         <v>0.0769230769230769</v>
       </c>
       <c r="H140" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>400</v>
+      </c>
+      <c r="I140" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>259</v>
+        <v>402</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -4848,12 +5778,15 @@
         <v>0.125</v>
       </c>
       <c r="H141" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>403</v>
+      </c>
+      <c r="I141" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>261</v>
+        <v>405</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -4874,12 +5807,15 @@
         <v>0.0526315789473684</v>
       </c>
       <c r="H142" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>406</v>
+      </c>
+      <c r="I142" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>262</v>
+        <v>408</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -4900,12 +5836,15 @@
         <v>0.272727272727273</v>
       </c>
       <c r="H143" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>409</v>
+      </c>
+      <c r="I143" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>264</v>
+        <v>411</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -4926,12 +5865,15 @@
         <v>0.333333333333333</v>
       </c>
       <c r="H144" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>412</v>
+      </c>
+      <c r="I144" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>265</v>
+        <v>414</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -4952,12 +5894,15 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I145" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>267</v>
+        <v>416</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -4978,12 +5923,15 @@
         <v>0.305555555555556</v>
       </c>
       <c r="H146" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>417</v>
+      </c>
+      <c r="I146" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>269</v>
+        <v>419</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -5004,12 +5952,15 @@
         <v>0.103448275862069</v>
       </c>
       <c r="H147" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>420</v>
+      </c>
+      <c r="I147" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>271</v>
+        <v>422</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -5030,12 +5981,15 @@
         <v>0.0454545454545455</v>
       </c>
       <c r="H148" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>423</v>
+      </c>
+      <c r="I148" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>273</v>
+        <v>425</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -5056,12 +6010,21 @@
         <v>0.153846153846154</v>
       </c>
       <c r="H149" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>426</v>
+      </c>
+      <c r="I149" t="s">
+        <v>427</v>
+      </c>
+      <c r="J149" t="s">
+        <v>428</v>
+      </c>
+      <c r="K149" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>275</v>
+        <v>430</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -5082,7 +6045,10 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>276</v>
+        <v>431</v>
+      </c>
+      <c r="I150" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
